--- a/design/Excel/excel/特效表_specialEffects.xlsx
+++ b/design/Excel/excel/特效表_specialEffects.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cfg_specialEffects" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -356,7 +356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>

--- a/design/Excel/excel/特效表_specialEffects.xlsx
+++ b/design/Excel/excel/特效表_specialEffects.xlsx
@@ -15,9 +15,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>route</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,6 +66,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -56,9 +104,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,15 +405,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -376,7 +470,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -390,7 +484,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
